--- a/Thesis_project/01_data-input/wiiw/activity.xlsx
+++ b/Thesis_project/01_data-input/wiiw/activity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\wiiw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\wiiw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B0DBC2-368F-4F6C-B2C6-D2F8ABACB160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571FE2C3-33AC-45EC-89D4-4525B3AA9D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -132,6 +132,24 @@
   </si>
   <si>
     <t>http://wiiw.ac.at/annual-database.html</t>
+  </si>
+  <si>
+    <t>NUTS</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>AL00</t>
+  </si>
+  <si>
+    <t>BA00</t>
+  </si>
+  <si>
+    <t>XK00</t>
+  </si>
+  <si>
+    <t>MD00</t>
   </si>
 </sst>
 </file>
@@ -141,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -152,18 +170,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -171,6 +192,13 @@
       <sz val="8"/>
       <color rgb="FF0101DF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -202,6 +230,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,7 +1026,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U18" sqref="U18"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1011,10 +1040,10 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -1084,8 +1113,8 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
+      <c r="A2" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -1158,8 +1187,8 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>24</v>
+      <c r="A3" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -1232,8 +1261,8 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>27</v>
+      <c r="A4" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -1306,8 +1335,8 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>31</v>
+      <c r="A5" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
